--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col11a1-Ddr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col11a1-Ddr1.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.029375</v>
+        <v>0.005705333333333333</v>
       </c>
       <c r="H2">
-        <v>0.088125</v>
+        <v>0.017116</v>
       </c>
       <c r="I2">
-        <v>0.01978727861543612</v>
+        <v>0.002541956540206457</v>
       </c>
       <c r="J2">
-        <v>0.01978727861543612</v>
+        <v>0.002541956540206458</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2763116666666667</v>
+        <v>0.141694</v>
       </c>
       <c r="N2">
-        <v>0.828935</v>
+        <v>0.425082</v>
       </c>
       <c r="O2">
-        <v>0.02083107478128044</v>
+        <v>0.01763793963212447</v>
       </c>
       <c r="P2">
-        <v>0.02083107478128044</v>
+        <v>0.01763793963212447</v>
       </c>
       <c r="Q2">
-        <v>0.008116655208333334</v>
+        <v>0.0008084115013333332</v>
       </c>
       <c r="R2">
-        <v>0.07304989687499999</v>
+        <v>0.007275703511999999</v>
       </c>
       <c r="S2">
-        <v>0.0004121902805561811</v>
+        <v>4.483487600364547E-05</v>
       </c>
       <c r="T2">
-        <v>0.0004121902805561811</v>
+        <v>4.483487600364547E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.029375</v>
+        <v>0.005705333333333333</v>
       </c>
       <c r="H3">
-        <v>0.088125</v>
+        <v>0.017116</v>
       </c>
       <c r="I3">
-        <v>0.01978727861543612</v>
+        <v>0.002541956540206457</v>
       </c>
       <c r="J3">
-        <v>0.01978727861543612</v>
+        <v>0.002541956540206458</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>6.542395</v>
       </c>
       <c r="O3">
-        <v>0.1644098988384798</v>
+        <v>0.2714637835982539</v>
       </c>
       <c r="P3">
-        <v>0.1644098988384798</v>
+        <v>0.2714637835982538</v>
       </c>
       <c r="Q3">
-        <v>0.06406095104166666</v>
+        <v>0.01244218142444444</v>
       </c>
       <c r="R3">
-        <v>0.5765485593749999</v>
+        <v>0.11197963282</v>
       </c>
       <c r="S3">
-        <v>0.003253224475452666</v>
+        <v>0.000690049140146772</v>
       </c>
       <c r="T3">
-        <v>0.003253224475452666</v>
+        <v>0.000690049140146772</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.029375</v>
+        <v>0.005705333333333333</v>
       </c>
       <c r="H4">
-        <v>0.088125</v>
+        <v>0.017116</v>
       </c>
       <c r="I4">
-        <v>0.01978727861543612</v>
+        <v>0.002541956540206457</v>
       </c>
       <c r="J4">
-        <v>0.01978727861543612</v>
+        <v>0.002541956540206458</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.807288</v>
+        <v>5.710985666666667</v>
       </c>
       <c r="N4">
-        <v>32.421864</v>
+        <v>17.132957</v>
       </c>
       <c r="O4">
-        <v>0.8147590263802398</v>
+        <v>0.7108982767696218</v>
       </c>
       <c r="P4">
-        <v>0.8147590263802398</v>
+        <v>0.7108982767696217</v>
       </c>
       <c r="Q4">
-        <v>0.317464085</v>
+        <v>0.03258307689022222</v>
       </c>
       <c r="R4">
-        <v>2.857176765</v>
+        <v>0.293247692012</v>
       </c>
       <c r="S4">
-        <v>0.01612186385942727</v>
+        <v>0.00180707252405604</v>
       </c>
       <c r="T4">
-        <v>0.01612186385942727</v>
+        <v>0.00180707252405604</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>2.578296</v>
       </c>
       <c r="I5">
-        <v>0.5789215467241361</v>
+        <v>0.3829116837922498</v>
       </c>
       <c r="J5">
-        <v>0.5789215467241361</v>
+        <v>0.3829116837922499</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2763116666666667</v>
+        <v>0.141694</v>
       </c>
       <c r="N5">
-        <v>0.828935</v>
+        <v>0.425082</v>
       </c>
       <c r="O5">
-        <v>0.02083107478128044</v>
+        <v>0.01763793963212447</v>
       </c>
       <c r="P5">
-        <v>0.02083107478128044</v>
+        <v>0.01763793963212447</v>
       </c>
       <c r="Q5">
-        <v>0.2374710883066667</v>
+        <v>0.121776357808</v>
       </c>
       <c r="R5">
-        <v>2.13723979476</v>
+        <v>1.095987220272</v>
       </c>
       <c r="S5">
-        <v>0.01205955803230502</v>
+        <v>0.006753773163162836</v>
       </c>
       <c r="T5">
-        <v>0.01205955803230502</v>
+        <v>0.006753773163162836</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2.578296</v>
       </c>
       <c r="I6">
-        <v>0.5789215467241361</v>
+        <v>0.3829116837922498</v>
       </c>
       <c r="J6">
-        <v>0.5789215467241361</v>
+        <v>0.3829116837922499</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>6.542395</v>
       </c>
       <c r="O6">
-        <v>0.1644098988384798</v>
+        <v>0.2714637835982539</v>
       </c>
       <c r="P6">
-        <v>0.1644098988384798</v>
+        <v>0.2714637835982538</v>
       </c>
       <c r="Q6">
         <v>1.874247873213333</v>
@@ -818,10 +818,10 @@
         <v>16.86823085892</v>
       </c>
       <c r="S6">
-        <v>0.09518043293233144</v>
+        <v>0.1039466544662223</v>
       </c>
       <c r="T6">
-        <v>0.09518043293233144</v>
+        <v>0.1039466544662223</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>2.578296</v>
       </c>
       <c r="I7">
-        <v>0.5789215467241361</v>
+        <v>0.3829116837922498</v>
       </c>
       <c r="J7">
-        <v>0.5789215467241361</v>
+        <v>0.3829116837922499</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.807288</v>
+        <v>5.710985666666667</v>
       </c>
       <c r="N7">
-        <v>32.421864</v>
+        <v>17.132957</v>
       </c>
       <c r="O7">
-        <v>0.8147590263802398</v>
+        <v>0.7108982767696218</v>
       </c>
       <c r="P7">
-        <v>0.8147590263802398</v>
+        <v>0.7108982767696217</v>
       </c>
       <c r="Q7">
-        <v>9.288129140416</v>
+        <v>4.908203833474666</v>
       </c>
       <c r="R7">
-        <v>83.59316226374399</v>
+        <v>44.173834501272</v>
       </c>
       <c r="S7">
-        <v>0.4716815557594996</v>
+        <v>0.2722112561628647</v>
       </c>
       <c r="T7">
-        <v>0.4716815557594996</v>
+        <v>0.2722112561628647</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5957326666666666</v>
+        <v>1.379328</v>
       </c>
       <c r="H8">
-        <v>1.787198</v>
+        <v>4.137983999999999</v>
       </c>
       <c r="I8">
-        <v>0.4012911746604278</v>
+        <v>0.6145463596675437</v>
       </c>
       <c r="J8">
-        <v>0.4012911746604279</v>
+        <v>0.6145463596675437</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2763116666666667</v>
+        <v>0.141694</v>
       </c>
       <c r="N8">
-        <v>0.828935</v>
+        <v>0.425082</v>
       </c>
       <c r="O8">
-        <v>0.02083107478128044</v>
+        <v>0.01763793963212447</v>
       </c>
       <c r="P8">
-        <v>0.02083107478128044</v>
+        <v>0.01763793963212447</v>
       </c>
       <c r="Q8">
-        <v>0.1646078860144444</v>
+        <v>0.195442501632</v>
       </c>
       <c r="R8">
-        <v>1.48147097413</v>
+        <v>1.758982514688</v>
       </c>
       <c r="S8">
-        <v>0.008359326468419241</v>
+        <v>0.01083933159295799</v>
       </c>
       <c r="T8">
-        <v>0.008359326468419243</v>
+        <v>0.01083933159295799</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5957326666666666</v>
+        <v>1.379328</v>
       </c>
       <c r="H9">
-        <v>1.787198</v>
+        <v>4.137983999999999</v>
       </c>
       <c r="I9">
-        <v>0.4012911746604278</v>
+        <v>0.6145463596675437</v>
       </c>
       <c r="J9">
-        <v>0.4012911746604279</v>
+        <v>0.6145463596675437</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>6.542395</v>
       </c>
       <c r="O9">
-        <v>0.1644098988384798</v>
+        <v>0.2714637835982539</v>
       </c>
       <c r="P9">
-        <v>0.1644098988384798</v>
+        <v>0.2714637835982538</v>
       </c>
       <c r="Q9">
-        <v>1.299172806578889</v>
+        <v>3.00803620352</v>
       </c>
       <c r="R9">
-        <v>11.69255525921</v>
+        <v>27.07232583168</v>
       </c>
       <c r="S9">
-        <v>0.06597624143069565</v>
+        <v>0.1668270799918848</v>
       </c>
       <c r="T9">
-        <v>0.06597624143069565</v>
+        <v>0.1668270799918848</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5957326666666666</v>
+        <v>1.379328</v>
       </c>
       <c r="H10">
-        <v>1.787198</v>
+        <v>4.137983999999999</v>
       </c>
       <c r="I10">
-        <v>0.4012911746604278</v>
+        <v>0.6145463596675437</v>
       </c>
       <c r="J10">
-        <v>0.4012911746604279</v>
+        <v>0.6145463596675437</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.807288</v>
+        <v>5.710985666666667</v>
       </c>
       <c r="N10">
-        <v>32.421864</v>
+        <v>17.132957</v>
       </c>
       <c r="O10">
-        <v>0.8147590263802398</v>
+        <v>0.7108982767696218</v>
       </c>
       <c r="P10">
-        <v>0.8147590263802398</v>
+        <v>0.7108982767696217</v>
       </c>
       <c r="Q10">
-        <v>6.438254499674666</v>
+        <v>7.877322437631999</v>
       </c>
       <c r="R10">
-        <v>57.944290497072</v>
+        <v>70.895901938688</v>
       </c>
       <c r="S10">
-        <v>0.3269556067613129</v>
+        <v>0.436879948082701</v>
       </c>
       <c r="T10">
-        <v>0.326955606761313</v>
+        <v>0.4368799480827009</v>
       </c>
     </row>
   </sheetData>
